--- a/diary/2017-6-12(L).xlsx
+++ b/diary/2017-6-12(L).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>P</t>
   </si>
@@ -80,6 +80,10 @@
   </si>
   <si>
     <t>布丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科學麵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -647,6 +651,20 @@
         <v>35</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C12" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
@@ -661,19 +679,19 @@
       </c>
       <c r="B18" s="1">
         <f>SUM(B2:B17)</f>
-        <v>187.89999999999998</v>
+        <v>192.49999999999997</v>
       </c>
       <c r="C18" s="1">
         <f>SUM(C2:C17)</f>
-        <v>82.799999999999983</v>
+        <v>107.39999999999998</v>
       </c>
       <c r="D18" s="1">
         <f>SUM(D2:D17)</f>
-        <v>100.20000000000002</v>
+        <v>108.50000000000001</v>
       </c>
       <c r="E18" s="1">
         <f>SUM(B18*4, C18*4, D18*9)</f>
-        <v>1984.6</v>
+        <v>2176.1</v>
       </c>
       <c r="F18" s="1">
         <f>SUM(F3:F17)</f>
